--- a/web/import/contacts-nous-pour-elles.xlsx
+++ b/web/import/contacts-nous-pour-elles.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\workspace\entrances\web\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -360,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A115"/>
+  <dimension ref="A1:A118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,6 +946,21 @@
         <v>677551282</v>
       </c>
     </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>674000008</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>670428466</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>694210203</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/web/import/contacts-nous-pour-elles.xlsx
+++ b/web/import/contacts-nous-pour-elles.xlsx
@@ -360,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A118"/>
+  <dimension ref="A1:A119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,6 +961,11 @@
         <v>694210203</v>
       </c>
     </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>699704543</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
